--- a/Input data/virheloki.xlsx
+++ b/Input data/virheloki.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jere\Documents\UiPath\netvisorRobo\Input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e25e6a79ed87480/Tiedostot/UiPath/robo/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B082F1-A751-4098-8148-69FD3A6FD4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="5100" yWindow="4890" windowWidth="28050" windowHeight="11865" firstSheet="0" activeTab="0" xr2:uid="{0F608289-17BE-4AFB-9DFC-91E222713B1D}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Taul1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05C279-7409-4BB8-8730-A6B21703FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1665" yWindow="2025" windowWidth="28800" windowHeight="15345" xr2:uid="{0F608289-17BE-4AFB-9DFC-91E222713B1D}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,126 +29,146 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>Lappeenrannan kaupunki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0165069-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVONLINJA OY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Palvelujen ostot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matkustus- ja kuljetuspalvelut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaupunkikehitys</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kadut ja ympäristö</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1988068-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARCO OY/POHJOLA PANKKI OYJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aineet, tarvikkeet ja tavarat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kalusto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maakunnallinen palvelutoiminta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-K Pelastuslaitos</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Lappeenrannan kaupunki</t>
+  </si>
+  <si>
+    <t>1988068-5</t>
+  </si>
+  <si>
+    <t>SARCO OY/POHJOLA PANKKI OYJ</t>
+  </si>
+  <si>
+    <t>Aineet, tarvikkeet ja tavarat</t>
+  </si>
+  <si>
+    <t>Kalusto</t>
+  </si>
+  <si>
+    <t>Maakunnallinen palvelutoiminta</t>
+  </si>
+  <si>
+    <t>E-K Pelastuslaitos</t>
+  </si>
+  <si>
+    <t>Kuntanro</t>
+  </si>
+  <si>
+    <t>Kaupungin nimi</t>
+  </si>
+  <si>
+    <t>Tositepäivä</t>
+  </si>
+  <si>
+    <t>Tositenro</t>
+  </si>
+  <si>
+    <t>Toimittajanro</t>
+  </si>
+  <si>
+    <t>Y-tunnus</t>
+  </si>
+  <si>
+    <t>Toimittaja</t>
+  </si>
+  <si>
+    <t>Tiliryhmän nro</t>
+  </si>
+  <si>
+    <t>Tiliryhmä</t>
+  </si>
+  <si>
+    <t>Lask.tili</t>
+  </si>
+  <si>
+    <t>Tili</t>
+  </si>
+  <si>
+    <t>Summa</t>
+  </si>
+  <si>
+    <t>Toimiala nro</t>
+  </si>
+  <si>
+    <t>Toimiala</t>
+  </si>
+  <si>
+    <t>Vastuualue nro</t>
+  </si>
+  <si>
+    <t>Vastuualue</t>
+  </si>
+  <si>
+    <t>Kustannuspaikka</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normaali" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,121 +467,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5ED9A80C-CCF8-4B97-A5BE-0F02307D270C}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:17">
-      <x:c r="A1" s="1" t="n">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="2">
-        <x:v>44133</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="n">
-        <x:v>5474</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="n">
-        <x:v>34912</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="n">
-        <x:v>4420</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="N1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="O1" s="1" t="n">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="P1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q1" s="1" t="n">
-        <x:v>3400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:17">
-      <x:c r="A2" s="1" t="n">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="2">
-        <x:v>44121</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>4209</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1670</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="n">
-        <x:v>4580</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="n">
-        <x:v>420</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="n">
-        <x:v>4231</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED9A80C-CCF8-4B97-A5BE-0F02307D270C}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="K2:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>405</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44121</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4209</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1670</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4580</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>420</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input data/virheloki.xlsx
+++ b/Input data/virheloki.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e25e6a79ed87480/Tiedostot/UiPath/robo/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D05C279-7409-4BB8-8730-A6B21703FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1665" yWindow="2025" windowWidth="28800" windowHeight="15345" xr2:uid="{0F608289-17BE-4AFB-9DFC-91E222713B1D}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="1665" yWindow="2025" windowWidth="28800" windowHeight="15345" firstSheet="0" activeTab="0" xr2:uid="{0F608289-17BE-4AFB-9DFC-91E222713B1D}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Taul1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -29,146 +30,194 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Lappeenrannan kaupunki</t>
-  </si>
-  <si>
-    <t>1988068-5</t>
-  </si>
-  <si>
-    <t>SARCO OY/POHJOLA PANKKI OYJ</t>
-  </si>
-  <si>
-    <t>Aineet, tarvikkeet ja tavarat</t>
-  </si>
-  <si>
-    <t>Kalusto</t>
-  </si>
-  <si>
-    <t>Maakunnallinen palvelutoiminta</t>
-  </si>
-  <si>
-    <t>E-K Pelastuslaitos</t>
-  </si>
-  <si>
-    <t>Kuntanro</t>
-  </si>
-  <si>
-    <t>Kaupungin nimi</t>
-  </si>
-  <si>
-    <t>Tositepäivä</t>
-  </si>
-  <si>
-    <t>Tositenro</t>
-  </si>
-  <si>
-    <t>Toimittajanro</t>
-  </si>
-  <si>
-    <t>Y-tunnus</t>
-  </si>
-  <si>
-    <t>Toimittaja</t>
-  </si>
-  <si>
-    <t>Tiliryhmän nro</t>
-  </si>
-  <si>
-    <t>Tiliryhmä</t>
-  </si>
-  <si>
-    <t>Lask.tili</t>
-  </si>
-  <si>
-    <t>Tili</t>
-  </si>
-  <si>
-    <t>Summa</t>
-  </si>
-  <si>
-    <t>Toimiala nro</t>
-  </si>
-  <si>
-    <t>Toimiala</t>
-  </si>
-  <si>
-    <t>Vastuualue nro</t>
-  </si>
-  <si>
-    <t>Vastuualue</t>
-  </si>
-  <si>
-    <t>Kustannuspaikka</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <x:si>
+    <x:t>Kuntanro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaupungin nimi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tositepäivä</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tositenro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toimittajanro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y-tunnus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toimittaja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiliryhmän nro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiliryhmä</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lask.tili</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tili</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toimiala nro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toimiala</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vastuualue nro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vastuualue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kustannuspaikka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lappeenrannan kaupunki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1988068-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARCO OY/POHJOLA PANKKI OYJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aineet, tarvikkeet ja tavarat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kalusto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maakunnallinen palvelutoiminta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-K Pelastuslaitos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0165069-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVONLINJA OY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Palvelujen ostot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matkustus- ja kuljetuspalvelut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaupunkikehitys</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kadut ja ympäristö</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="9">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,119 +516,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED9A80C-CCF8-4B97-A5BE-0F02307D270C}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="K2:L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>405</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44121</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4209</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1670</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4580</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>420</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5ED9A80C-CCF8-4B97-A5BE-0F02307D270C}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Q2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="L2" sqref="L2 L2:L2 K2:L7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="6">
+        <x:v>44121</x:v>
+      </x:c>
+      <x:c r="D2" s="5" t="n">
+        <x:v>4209</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="n">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="F2" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I2" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="5" t="n">
+        <x:v>4580</x:v>
+      </x:c>
+      <x:c r="K2" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M2" s="5" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N2" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O2" s="5" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="P2" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q2" s="5" t="n">
+        <x:v>4231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17">
+      <x:c r="A3" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="6">
+        <x:v>44133</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="n">
+        <x:v>5474</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="n">
+        <x:v>34912</x:v>
+      </x:c>
+      <x:c r="F3" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H3" s="5" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I3" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J3" s="5" t="n">
+        <x:v>4420</x:v>
+      </x:c>
+      <x:c r="K3" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M3" s="5" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N3" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O3" s="5" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="P3" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q3" s="5" t="n">
+        <x:v>3400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:17">
+      <x:c r="A4" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="6">
+        <x:v>44121</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="n">
+        <x:v>4209</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="n">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="F4" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I4" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J4" s="5" t="n">
+        <x:v>4580</x:v>
+      </x:c>
+      <x:c r="K4" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M4" s="5" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N4" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O4" s="5" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="P4" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q4" s="5" t="n">
+        <x:v>4231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:17">
+      <x:c r="A5" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="6">
+        <x:v>44133</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="n">
+        <x:v>5474</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="n">
+        <x:v>34912</x:v>
+      </x:c>
+      <x:c r="F5" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H5" s="5" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I5" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J5" s="5" t="n">
+        <x:v>4420</x:v>
+      </x:c>
+      <x:c r="K5" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M5" s="5" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N5" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O5" s="5" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="P5" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q5" s="5" t="n">
+        <x:v>3400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:17">
+      <x:c r="A6" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="6">
+        <x:v>44121</x:v>
+      </x:c>
+      <x:c r="D6" s="5" t="n">
+        <x:v>4209</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="n">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H6" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I6" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J6" s="5" t="n">
+        <x:v>4580</x:v>
+      </x:c>
+      <x:c r="K6" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M6" s="5" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N6" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O6" s="5" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="P6" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q6" s="5" t="n">
+        <x:v>4231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:17">
+      <x:c r="A7" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="6">
+        <x:v>44133</x:v>
+      </x:c>
+      <x:c r="D7" s="5" t="n">
+        <x:v>5474</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="n">
+        <x:v>34912</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I7" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J7" s="5" t="n">
+        <x:v>4420</x:v>
+      </x:c>
+      <x:c r="K7" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M7" s="5" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N7" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O7" s="5" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="P7" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q7" s="5" t="n">
+        <x:v>3400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:17">
+      <x:c r="A8" s="5" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="6">
+        <x:v>44121</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="n">
+        <x:v>4209</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="n">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H8" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I8" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J8" s="5" t="n">
+        <x:v>4580</x:v>
+      </x:c>
+      <x:c r="K8" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M8" s="5" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N8" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O8" s="5" t="n">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="P8" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q8" s="5" t="n">
+        <x:v>4231</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>